--- a/EntregaRecepcionTHRM/REPRTE NVOS INGRESOS POSGRADO 2015-2023.xlsx
+++ b/EntregaRecepcionTHRM/REPRTE NVOS INGRESOS POSGRADO 2015-2023.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/EntregaRecepcionTHRM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBC61CC-2DFB-014A-BE22-EBB47081A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18160" windowHeight="18780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>POSGRADO</t>
   </si>
@@ -120,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,9 +247,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Sin título1" xfId="2"/>
-    <cellStyle name="Sin título2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Sin título1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Sin título2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,27 +519,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
@@ -546,7 +563,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="30" customHeight="1">
+    <row r="5" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -642,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="30" customHeight="1">
+    <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -678,7 +695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="30" customHeight="1">
+    <row r="7" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -706,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="30" customHeight="1">
+    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -756,7 +773,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="30" customHeight="1">
+    <row r="9" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -812,7 +829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="30" customHeight="1">
+    <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -850,7 +867,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="40.5" customHeight="1">
+    <row r="11" spans="2:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -892,7 +909,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="30" customHeight="1">
+    <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -932,7 +949,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="30" customHeight="1">
+    <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -968,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="30" customHeight="1">
+    <row r="14" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -996,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="30" customHeight="1">
+    <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +1061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1113,4 +1130,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D6DAE8-3381-C343-A140-91527A0340C5}">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>